--- a/other/配置表/g-关卡波次配置表.xlsx
+++ b/other/配置表/g-关卡波次配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zsbin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+波次</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+怪物id配置</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
-  <si>
-    <t>波次</t>
-  </si>
-  <si>
-    <t>怪物id配置</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>wellen</t>
   </si>
@@ -365,17 +413,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,21 +427,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,16 +463,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,16 +495,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,14 +519,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,10 +533,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,8 +547,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,7 +571,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,181 +733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,23 +768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +800,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -782,11 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,17 +854,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,144 +882,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1334,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1346,865 +1385,858 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>2002</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>2003</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>2004</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>3001</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>3002</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>3002</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>3003</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>3003</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>3004</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>3004</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:2">
+      <c r="A17" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>3005</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>4002</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
       <c r="A19" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>4003</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="1">
-        <v>4003</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>4004</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
       <c r="A21" s="1">
-        <v>4004</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>5001</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:2">
-      <c r="A22" s="1">
-        <v>4005</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5001</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>5002</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5002</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>5003</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5003</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>5004</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5004</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:2">
+      <c r="A27" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>5005</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:2">
+      <c r="A28" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:2">
-      <c r="A28" s="1">
-        <v>6001</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:2">
+      <c r="A29" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:2">
-      <c r="A29" s="1">
-        <v>6002</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:2">
+      <c r="A30" s="1">
+        <v>6004</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:2">
-      <c r="A30" s="1">
-        <v>6003</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:2">
+      <c r="A31" s="1">
+        <v>6005</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:2">
-      <c r="A31" s="1">
-        <v>6004</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>7001</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:2">
-      <c r="A32" s="1">
-        <v>6005</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7001</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>7002</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7002</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>7003</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7003</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>7004</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7004</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>7005</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="1">
+        <v>8001</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>7005</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:2">
+      <c r="A38" s="1">
+        <v>8002</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:2">
-      <c r="A38" s="1">
-        <v>8001</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:2">
+      <c r="A39" s="1">
+        <v>8003</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:2">
-      <c r="A39" s="1">
-        <v>8002</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="40" s="1" customFormat="1" spans="1:2">
+      <c r="A40" s="1">
+        <v>8004</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:2">
-      <c r="A40" s="1">
-        <v>8003</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="41" s="1" customFormat="1" spans="1:2">
+      <c r="A41" s="1">
+        <v>8005</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:2">
-      <c r="A41" s="1">
-        <v>8004</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>9001</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:2">
-      <c r="A42" s="1">
-        <v>8005</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>9001</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>9002</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>9002</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>9003</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>9003</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>9004</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>9004</v>
-      </c>
-      <c r="B46" s="3" t="s">
+        <v>9005</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:2">
+      <c r="A47" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>9005</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="48" s="1" customFormat="1" spans="1:2">
+      <c r="A48" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:2">
-      <c r="A48" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="49" s="1" customFormat="1" spans="1:2">
+      <c r="A49" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:2">
-      <c r="A49" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="50" s="1" customFormat="1" spans="1:2">
+      <c r="A50" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:2">
-      <c r="A50" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:2">
+      <c r="A51" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:2">
-      <c r="A51" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>11001</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:2">
-      <c r="A52" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>11001</v>
+        <v>11002</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>11002</v>
+        <v>11003</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>11003</v>
+        <v>11004</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>11004</v>
+        <v>11005</v>
       </c>
       <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:2">
+      <c r="A57" s="1">
+        <v>12001</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>11005</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" s="1" customFormat="1" spans="1:2">
+      <c r="A58" s="1">
+        <v>12002</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:2">
-      <c r="A58" s="1">
-        <v>12001</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="59" s="1" customFormat="1" spans="1:2">
+      <c r="A59" s="1">
+        <v>12003</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:2">
-      <c r="A59" s="1">
-        <v>12002</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="60" s="1" customFormat="1" spans="1:2">
+      <c r="A60" s="1">
+        <v>12004</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:2">
-      <c r="A60" s="1">
-        <v>12003</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="61" s="1" customFormat="1" spans="1:2">
+      <c r="A61" s="1">
+        <v>12005</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:2">
-      <c r="A61" s="1">
-        <v>12004</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>13001</v>
+      </c>
+      <c r="B62" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" spans="1:2">
-      <c r="A62" s="1">
-        <v>12005</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>13001</v>
+        <v>13002</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>13002</v>
+        <v>13003</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>13003</v>
+        <v>13004</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>13004</v>
+        <v>13005</v>
       </c>
       <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:2">
+      <c r="A67" s="1">
+        <v>14001</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>13005</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="68" s="1" customFormat="1" spans="1:2">
+      <c r="A68" s="1">
+        <v>14002</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:2">
-      <c r="A68" s="1">
-        <v>14001</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="69" s="1" customFormat="1" spans="1:2">
+      <c r="A69" s="1">
+        <v>14003</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:2">
-      <c r="A69" s="1">
-        <v>14002</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="70" s="1" customFormat="1" spans="1:2">
+      <c r="A70" s="1">
+        <v>14004</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:2">
-      <c r="A70" s="1">
-        <v>14003</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="71" s="1" customFormat="1" spans="1:2">
+      <c r="A71" s="1">
+        <v>14005</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:2">
-      <c r="A71" s="1">
-        <v>14004</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>15001</v>
+      </c>
+      <c r="B72" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" spans="1:2">
-      <c r="A72" s="1">
-        <v>14005</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>15001</v>
+        <v>15002</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>15002</v>
+        <v>15003</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>15003</v>
+        <v>15004</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>15004</v>
+        <v>15005</v>
       </c>
       <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:2">
+      <c r="A77" s="1">
+        <v>16001</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>15005</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="78" s="1" customFormat="1" spans="1:2">
+      <c r="A78" s="1">
+        <v>16002</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:2">
-      <c r="A78" s="1">
-        <v>16001</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="79" s="1" customFormat="1" spans="1:2">
+      <c r="A79" s="1">
+        <v>16003</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:2">
-      <c r="A79" s="1">
-        <v>16002</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="80" s="1" customFormat="1" spans="1:2">
+      <c r="A80" s="1">
+        <v>16004</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" spans="1:2">
-      <c r="A80" s="1">
-        <v>16003</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="81" s="1" customFormat="1" spans="1:2">
+      <c r="A81" s="1">
+        <v>16005</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:2">
-      <c r="A81" s="1">
-        <v>16004</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>17001</v>
+      </c>
+      <c r="B82" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" spans="1:2">
-      <c r="A82" s="1">
-        <v>16005</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>17001</v>
+        <v>17002</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>17002</v>
+        <v>17003</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>17003</v>
+        <v>17004</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>17004</v>
+        <v>17005</v>
       </c>
       <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:2">
+      <c r="A87" s="1">
+        <v>18001</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>17005</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" s="1" customFormat="1" spans="1:2">
+      <c r="A88" s="1">
+        <v>18002</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:2">
-      <c r="A88" s="1">
-        <v>18001</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="89" s="1" customFormat="1" spans="1:2">
+      <c r="A89" s="1">
+        <v>18003</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:2">
-      <c r="A89" s="1">
-        <v>18002</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="90" s="1" customFormat="1" spans="1:2">
+      <c r="A90" s="1">
+        <v>18004</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:2">
-      <c r="A90" s="1">
-        <v>18003</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="91" s="1" customFormat="1" spans="1:2">
+      <c r="A91" s="1">
+        <v>18005</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:2">
-      <c r="A91" s="1">
-        <v>18004</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>19001</v>
+      </c>
+      <c r="B92" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="92" s="2" customFormat="1" spans="1:2">
-      <c r="A92" s="1">
-        <v>18005</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>19001</v>
+        <v>19002</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>19002</v>
+        <v>19003</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>19003</v>
+        <v>19004</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>19004</v>
+        <v>19005</v>
       </c>
       <c r="B96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:2">
+      <c r="A97" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>19005</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="98" s="1" customFormat="1" spans="1:2">
+      <c r="A98" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:2">
-      <c r="A98" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="99" s="1" customFormat="1" spans="1:2">
+      <c r="A99" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" spans="1:2">
-      <c r="A99" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B99" s="4" t="s">
+    <row r="100" s="1" customFormat="1" spans="1:2">
+      <c r="A100" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:2">
-      <c r="A100" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B100" s="4" t="s">
+    <row r="101" s="1" customFormat="1" spans="1:2">
+      <c r="A101" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:2">
-      <c r="A101" s="1">
-        <v>20004</v>
-      </c>
-      <c r="B101" s="4" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>21001</v>
+      </c>
+      <c r="B102" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="102" s="2" customFormat="1" spans="1:2">
-      <c r="A102" s="1">
-        <v>20005</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>21001</v>
+        <v>21002</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>21002</v>
+        <v>21003</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>21003</v>
+        <v>21004</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>21004</v>
+        <v>21005</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>21005</v>
-      </c>
-      <c r="B107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/g-关卡波次配置表.xlsx
+++ b/other/配置表/g-关卡波次配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B5209EF5-63A3-4C30-BC86-EC34E9F2B175}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21405" yWindow="7575" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -67,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>wellen</t>
   </si>
@@ -841,8 +831,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,27 +847,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,8 +1004,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -893,9 +1199,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,17 +1461,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1210,24 +1802,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -1243,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -1251,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -1259,7 +1851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1267,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1275,7 +1867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -1283,7 +1875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -1291,7 +1883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1">
         <v>2003</v>
       </c>
@@ -1299,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1">
         <v>2004</v>
       </c>
@@ -1307,7 +1899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -1315,7 +1907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -1323,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -1331,7 +1923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -1339,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>3004</v>
       </c>
@@ -1347,7 +1939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>3005</v>
       </c>
@@ -1355,7 +1947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" spans="1:2">
       <c r="A17" s="1">
         <v>4001</v>
       </c>
@@ -1363,7 +1955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="1">
         <v>4002</v>
       </c>
@@ -1371,7 +1963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" spans="1:2">
       <c r="A19" s="1">
         <v>4003</v>
       </c>
@@ -1379,7 +1971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="1">
         <v>4004</v>
       </c>
@@ -1387,7 +1979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" spans="1:2">
       <c r="A21" s="1">
         <v>4005</v>
       </c>
@@ -1395,7 +1987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>5001</v>
       </c>
@@ -1403,7 +1995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>5002</v>
       </c>
@@ -1411,7 +2003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>5003</v>
       </c>
@@ -1419,7 +2011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>5004</v>
       </c>
@@ -1427,7 +2019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>5005</v>
       </c>
@@ -1435,7 +2027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" spans="1:2">
       <c r="A27" s="1">
         <v>6001</v>
       </c>
@@ -1443,7 +2035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" spans="1:2">
       <c r="A28" s="1">
         <v>6002</v>
       </c>
@@ -1451,7 +2043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" spans="1:2">
       <c r="A29" s="1">
         <v>6003</v>
       </c>
@@ -1459,7 +2051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" spans="1:2">
       <c r="A30" s="1">
         <v>6004</v>
       </c>
@@ -1467,7 +2059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" spans="1:2">
       <c r="A31" s="1">
         <v>6005</v>
       </c>
@@ -1475,7 +2067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>7001</v>
       </c>
@@ -1483,7 +2075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>7002</v>
       </c>
@@ -1491,7 +2083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>7003</v>
       </c>
@@ -1499,7 +2091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>7004</v>
       </c>
@@ -1507,7 +2099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>7005</v>
       </c>
@@ -1515,7 +2107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" spans="1:2">
       <c r="A37" s="1">
         <v>8001</v>
       </c>
@@ -1523,7 +2115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" spans="1:2">
       <c r="A38" s="1">
         <v>8002</v>
       </c>
@@ -1531,7 +2123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" spans="1:2">
       <c r="A39" s="1">
         <v>8003</v>
       </c>
@@ -1539,7 +2131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" spans="1:2">
       <c r="A40" s="1">
         <v>8004</v>
       </c>
@@ -1547,7 +2139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" spans="1:2">
       <c r="A41" s="1">
         <v>8005</v>
       </c>
@@ -1555,7 +2147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>9001</v>
       </c>
@@ -1563,7 +2155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>9002</v>
       </c>
@@ -1571,7 +2163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>9003</v>
       </c>
@@ -1579,7 +2171,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>9004</v>
       </c>
@@ -1587,7 +2179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>9005</v>
       </c>
@@ -1595,7 +2187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" s="1" customFormat="1" spans="1:2">
       <c r="A47" s="1">
         <v>10001</v>
       </c>
@@ -1603,7 +2195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" s="1" customFormat="1" spans="1:2">
       <c r="A48" s="1">
         <v>10002</v>
       </c>
@@ -1611,7 +2203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" s="1" customFormat="1" spans="1:2">
       <c r="A49" s="1">
         <v>10003</v>
       </c>
@@ -1619,7 +2211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" s="1" customFormat="1" spans="1:2">
       <c r="A50" s="1">
         <v>10004</v>
       </c>
@@ -1627,7 +2219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" s="1" customFormat="1" spans="1:2">
       <c r="A51" s="1">
         <v>10005</v>
       </c>
@@ -1635,7 +2227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>11001</v>
       </c>
@@ -1643,7 +2235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>11002</v>
       </c>
@@ -1651,7 +2243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>11003</v>
       </c>
@@ -1659,7 +2251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>11004</v>
       </c>
@@ -1667,7 +2259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>11005</v>
       </c>
@@ -1675,7 +2267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" s="1" customFormat="1" spans="1:2">
       <c r="A57" s="1">
         <v>12001</v>
       </c>
@@ -1683,7 +2275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" s="1" customFormat="1" spans="1:2">
       <c r="A58" s="1">
         <v>12002</v>
       </c>
@@ -1691,7 +2283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" s="1" customFormat="1" spans="1:2">
       <c r="A59" s="1">
         <v>12003</v>
       </c>
@@ -1699,7 +2291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" s="1" customFormat="1" spans="1:2">
       <c r="A60" s="1">
         <v>12004</v>
       </c>
@@ -1707,7 +2299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" s="1" customFormat="1" spans="1:2">
       <c r="A61" s="1">
         <v>12005</v>
       </c>
@@ -1715,7 +2307,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>13001</v>
       </c>
@@ -1723,7 +2315,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>13002</v>
       </c>
@@ -1731,7 +2323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>13003</v>
       </c>
@@ -1739,7 +2331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>13004</v>
       </c>
@@ -1747,7 +2339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>13005</v>
       </c>
@@ -1755,7 +2347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" s="1" customFormat="1" spans="1:2">
       <c r="A67" s="1">
         <v>14001</v>
       </c>
@@ -1763,7 +2355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" s="1" customFormat="1" spans="1:2">
       <c r="A68" s="1">
         <v>14002</v>
       </c>
@@ -1771,7 +2363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" s="1" customFormat="1" spans="1:2">
       <c r="A69" s="1">
         <v>14003</v>
       </c>
@@ -1779,7 +2371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" s="1" customFormat="1" spans="1:2">
       <c r="A70" s="1">
         <v>14004</v>
       </c>
@@ -1787,7 +2379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" s="1" customFormat="1" spans="1:2">
       <c r="A71" s="1">
         <v>14005</v>
       </c>
@@ -1795,7 +2387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>15001</v>
       </c>
@@ -1803,7 +2395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>15002</v>
       </c>
@@ -1811,7 +2403,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>15003</v>
       </c>
@@ -1819,7 +2411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>15004</v>
       </c>
@@ -1827,7 +2419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>15005</v>
       </c>
@@ -1835,7 +2427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" s="1" customFormat="1" spans="1:2">
       <c r="A77" s="1">
         <v>16001</v>
       </c>
@@ -1843,7 +2435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" s="1" customFormat="1" spans="1:2">
       <c r="A78" s="1">
         <v>16002</v>
       </c>
@@ -1851,7 +2443,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" s="1" customFormat="1" spans="1:2">
       <c r="A79" s="1">
         <v>16003</v>
       </c>
@@ -1859,7 +2451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" s="1" customFormat="1" spans="1:2">
       <c r="A80" s="1">
         <v>16004</v>
       </c>
@@ -1867,7 +2459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" s="1" customFormat="1" spans="1:2">
       <c r="A81" s="1">
         <v>16005</v>
       </c>
@@ -1875,7 +2467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>17001</v>
       </c>
@@ -1883,7 +2475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>17002</v>
       </c>
@@ -1891,7 +2483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>17003</v>
       </c>
@@ -1899,7 +2491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>17004</v>
       </c>
@@ -1907,7 +2499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>17005</v>
       </c>
@@ -1915,7 +2507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" s="1" customFormat="1" spans="1:2">
       <c r="A87" s="1">
         <v>18001</v>
       </c>
@@ -1923,7 +2515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" s="1" customFormat="1" spans="1:2">
       <c r="A88" s="1">
         <v>18002</v>
       </c>
@@ -1931,7 +2523,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" s="1" customFormat="1" spans="1:2">
       <c r="A89" s="1">
         <v>18003</v>
       </c>
@@ -1939,7 +2531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" s="1" customFormat="1" spans="1:2">
       <c r="A90" s="1">
         <v>18004</v>
       </c>
@@ -1947,7 +2539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" s="1" customFormat="1" spans="1:2">
       <c r="A91" s="1">
         <v>18005</v>
       </c>
@@ -1955,7 +2547,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>19001</v>
       </c>
@@ -1963,7 +2555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>19002</v>
       </c>
@@ -1971,7 +2563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>19003</v>
       </c>
@@ -1979,7 +2571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>19004</v>
       </c>
@@ -1987,7 +2579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>19005</v>
       </c>
@@ -1995,7 +2587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" s="1" customFormat="1" spans="1:2">
       <c r="A97" s="1">
         <v>20001</v>
       </c>
@@ -2003,7 +2595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" s="1" customFormat="1" spans="1:2">
       <c r="A98" s="1">
         <v>20002</v>
       </c>
@@ -2011,7 +2603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" s="1" customFormat="1" spans="1:2">
       <c r="A99" s="1">
         <v>20003</v>
       </c>
@@ -2019,7 +2611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" s="1" customFormat="1" spans="1:2">
       <c r="A100" s="1">
         <v>20004</v>
       </c>
@@ -2027,7 +2619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" s="1" customFormat="1" spans="1:2">
       <c r="A101" s="1">
         <v>20005</v>
       </c>
@@ -2035,7 +2627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>21001</v>
       </c>
@@ -2043,7 +2635,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>21002</v>
       </c>
@@ -2051,7 +2643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>21003</v>
       </c>
@@ -2059,7 +2651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>21004</v>
       </c>
@@ -2067,7 +2659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>21005</v>
       </c>
@@ -2075,7 +2667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>22001</v>
       </c>
@@ -2083,7 +2675,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>22002</v>
       </c>
@@ -2091,7 +2683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>22003</v>
       </c>
@@ -2099,7 +2691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>22004</v>
       </c>
@@ -2107,7 +2699,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>22005</v>
       </c>
@@ -2115,7 +2707,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>23001</v>
       </c>
@@ -2123,7 +2715,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>23002</v>
       </c>
@@ -2131,7 +2723,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>23003</v>
       </c>
@@ -2139,7 +2731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>23004</v>
       </c>
@@ -2147,7 +2739,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>23005</v>
       </c>
@@ -2155,7 +2747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>24001</v>
       </c>
@@ -2163,7 +2755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>24002</v>
       </c>
@@ -2171,7 +2763,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>24003</v>
       </c>
@@ -2179,7 +2771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>24004</v>
       </c>
@@ -2187,7 +2779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>24005</v>
       </c>
@@ -2195,7 +2787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>25001</v>
       </c>
@@ -2203,7 +2795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>25002</v>
       </c>
@@ -2211,7 +2803,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>25003</v>
       </c>
@@ -2219,7 +2811,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>25004</v>
       </c>
@@ -2227,7 +2819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>25005</v>
       </c>
@@ -2235,7 +2827,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>26001</v>
       </c>
@@ -2243,7 +2835,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>26002</v>
       </c>
@@ -2251,7 +2843,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>26003</v>
       </c>
@@ -2259,7 +2851,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>26004</v>
       </c>
@@ -2267,7 +2859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>26005</v>
       </c>
@@ -2275,7 +2867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>27001</v>
       </c>
@@ -2283,7 +2875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>27002</v>
       </c>
@@ -2291,7 +2883,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>27003</v>
       </c>
@@ -2299,7 +2891,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>27004</v>
       </c>
@@ -2307,7 +2899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>27005</v>
       </c>
@@ -2315,7 +2907,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>28001</v>
       </c>
@@ -2323,7 +2915,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>28002</v>
       </c>
@@ -2331,7 +2923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>28003</v>
       </c>
@@ -2339,7 +2931,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>28004</v>
       </c>
@@ -2347,7 +2939,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>28005</v>
       </c>
@@ -2355,7 +2947,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>29001</v>
       </c>
@@ -2363,7 +2955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>29002</v>
       </c>
@@ -2371,7 +2963,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>29003</v>
       </c>
@@ -2379,7 +2971,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>29004</v>
       </c>
@@ -2387,7 +2979,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>29005</v>
       </c>
@@ -2395,7 +2987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>30001</v>
       </c>
@@ -2403,7 +2995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>30002</v>
       </c>
@@ -2411,7 +3003,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>30003</v>
       </c>
@@ -2419,7 +3011,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>30004</v>
       </c>
@@ -2427,7 +3019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>30005</v>
       </c>
@@ -2435,7 +3027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>31001</v>
       </c>
@@ -2443,7 +3035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>31002</v>
       </c>
@@ -2451,7 +3043,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>31003</v>
       </c>
@@ -2459,7 +3051,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>31004</v>
       </c>
@@ -2467,7 +3059,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>31005</v>
       </c>
@@ -2475,7 +3067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>32001</v>
       </c>
@@ -2483,7 +3075,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>32002</v>
       </c>
@@ -2491,7 +3083,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>32003</v>
       </c>
@@ -2499,7 +3091,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>32004</v>
       </c>
@@ -2507,7 +3099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>32005</v>
       </c>
@@ -2515,7 +3107,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>33001</v>
       </c>
@@ -2523,7 +3115,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>33002</v>
       </c>
@@ -2531,7 +3123,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>33003</v>
       </c>
@@ -2539,7 +3131,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>33004</v>
       </c>
@@ -2547,7 +3139,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>33005</v>
       </c>
@@ -2555,7 +3147,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>34001</v>
       </c>
@@ -2563,7 +3155,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>34002</v>
       </c>
@@ -2571,7 +3163,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>34003</v>
       </c>
@@ -2579,7 +3171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>34004</v>
       </c>
@@ -2587,7 +3179,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>34005</v>
       </c>
@@ -2595,7 +3187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>35001</v>
       </c>
@@ -2603,7 +3195,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>35002</v>
       </c>
@@ -2611,7 +3203,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>35003</v>
       </c>
@@ -2619,7 +3211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>35004</v>
       </c>
@@ -2627,7 +3219,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>35005</v>
       </c>
@@ -2635,7 +3227,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>36001</v>
       </c>
@@ -2643,7 +3235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>36002</v>
       </c>
@@ -2651,7 +3243,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>36003</v>
       </c>
@@ -2659,7 +3251,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>36004</v>
       </c>
@@ -2667,7 +3259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>36005</v>
       </c>
@@ -2675,7 +3267,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>37001</v>
       </c>
@@ -2683,7 +3275,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>37002</v>
       </c>
@@ -2691,7 +3283,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>37003</v>
       </c>
@@ -2699,7 +3291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>37004</v>
       </c>
@@ -2707,7 +3299,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>37005</v>
       </c>
@@ -2715,7 +3307,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>38001</v>
       </c>
@@ -2723,7 +3315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>38002</v>
       </c>
@@ -2731,7 +3323,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>38003</v>
       </c>
@@ -2739,7 +3331,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>38004</v>
       </c>
@@ -2747,7 +3339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>38005</v>
       </c>
@@ -2755,7 +3347,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>39001</v>
       </c>
@@ -2763,7 +3355,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>39002</v>
       </c>
@@ -2771,7 +3363,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>39003</v>
       </c>
@@ -2779,7 +3371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>39004</v>
       </c>
@@ -2787,7 +3379,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>39005</v>
       </c>
@@ -2795,7 +3387,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>40001</v>
       </c>
@@ -2803,7 +3395,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>40002</v>
       </c>
@@ -2811,7 +3403,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>40003</v>
       </c>
@@ -2819,7 +3411,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>40004</v>
       </c>
@@ -2827,7 +3419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>40005</v>
       </c>
@@ -2835,7 +3427,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>41001</v>
       </c>
@@ -2843,7 +3435,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>41002</v>
       </c>
@@ -2851,7 +3443,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>41003</v>
       </c>
@@ -2859,7 +3451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>41004</v>
       </c>
@@ -2867,7 +3459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>41005</v>
       </c>
@@ -2875,7 +3467,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>42001</v>
       </c>
@@ -2883,7 +3475,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>42002</v>
       </c>
@@ -2891,7 +3483,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>42003</v>
       </c>
@@ -2899,7 +3491,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>42004</v>
       </c>
@@ -2907,7 +3499,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>42005</v>
       </c>
@@ -2915,7 +3507,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>43001</v>
       </c>
@@ -2923,7 +3515,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>43002</v>
       </c>
@@ -2931,7 +3523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>43003</v>
       </c>
@@ -2939,7 +3531,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>43004</v>
       </c>
@@ -2947,7 +3539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>43005</v>
       </c>
@@ -2955,7 +3547,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>44001</v>
       </c>
@@ -2963,7 +3555,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>44002</v>
       </c>
@@ -2971,7 +3563,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>44003</v>
       </c>
@@ -2979,7 +3571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>44004</v>
       </c>
@@ -2987,7 +3579,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>44005</v>
       </c>
@@ -2995,7 +3587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>45001</v>
       </c>
@@ -3003,7 +3595,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>45002</v>
       </c>
@@ -3011,7 +3603,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>45003</v>
       </c>
@@ -3019,7 +3611,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>45004</v>
       </c>
@@ -3027,7 +3619,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>45005</v>
       </c>
@@ -3035,7 +3627,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>46001</v>
       </c>
@@ -3043,7 +3635,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>46002</v>
       </c>
@@ -3051,7 +3643,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>46003</v>
       </c>
@@ -3059,7 +3651,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>46004</v>
       </c>
@@ -3067,7 +3659,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>46005</v>
       </c>
@@ -3075,7 +3667,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>47001</v>
       </c>
@@ -3083,7 +3675,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>47002</v>
       </c>
@@ -3091,7 +3683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>47003</v>
       </c>
@@ -3099,7 +3691,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>47004</v>
       </c>
@@ -3107,7 +3699,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>47005</v>
       </c>
@@ -3115,7 +3707,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>48001</v>
       </c>
@@ -3123,7 +3715,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>48002</v>
       </c>
@@ -3131,7 +3723,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>48003</v>
       </c>
@@ -3139,7 +3731,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>48004</v>
       </c>
@@ -3147,7 +3739,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>48005</v>
       </c>
@@ -3155,7 +3747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>49001</v>
       </c>
@@ -3163,7 +3755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>49002</v>
       </c>
@@ -3171,7 +3763,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>49003</v>
       </c>
@@ -3179,7 +3771,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>49004</v>
       </c>
@@ -3187,7 +3779,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>49005</v>
       </c>
@@ -3195,7 +3787,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>50001</v>
       </c>
@@ -3203,7 +3795,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>50002</v>
       </c>
@@ -3211,7 +3803,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>50003</v>
       </c>
@@ -3219,7 +3811,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>50004</v>
       </c>
@@ -3227,7 +3819,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>50005</v>
       </c>
@@ -3236,37 +3828,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>